--- a/ExcelReports/ExcelTemplates/DoctorVisitsHistory.xlsx
+++ b/ExcelReports/ExcelTemplates/DoctorVisitsHistory.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Доктор</t>
   </si>
@@ -60,12 +60,18 @@
   </si>
   <si>
     <t>ФИО родителей</t>
+  </si>
+  <si>
+    <t>Тип пациента</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,6 +152,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -155,8 +163,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G72"/>
+  <dimension ref="B1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,9 +458,10 @@
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -463,39 +470,41 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="3" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="7" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="7" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -509,215 +518,222 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="9"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="9"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="9"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="9"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="9"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="9"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="9"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="9"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="9"/>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelReports/ExcelTemplates/DoctorVisitsHistory.xlsx
+++ b/ExcelReports/ExcelTemplates/DoctorVisitsHistory.xlsx
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Доктор</t>
-  </si>
-  <si>
     <t>Время посещения</t>
   </si>
   <si>
@@ -44,25 +41,28 @@
     <t>Должность</t>
   </si>
   <si>
-    <t>История посещений доктора</t>
-  </si>
-  <si>
-    <t>ФИО пациента</t>
-  </si>
-  <si>
-    <t>Адрес пациента</t>
-  </si>
-  <si>
-    <t>Телефонный номер пациента</t>
-  </si>
-  <si>
     <t>Телефонный номер родителей</t>
   </si>
   <si>
     <t>ФИО родителей</t>
   </si>
   <si>
-    <t>Тип пациента</t>
+    <t>Специалист</t>
+  </si>
+  <si>
+    <t>История посещений Специалиста</t>
+  </si>
+  <si>
+    <t>ФИО инвалида или лица с ОВЗ</t>
+  </si>
+  <si>
+    <t>Адрес инвалида или лица с ОВЗ</t>
+  </si>
+  <si>
+    <t>Телефонный номер инвалида или лица с ОВЗ</t>
+  </si>
+  <si>
+    <t>Инвалид или лицо с ОВЗ</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="B1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +463,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="4"/>
@@ -474,28 +474,28 @@
     </row>
     <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
     <row r="7" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -506,25 +506,25 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
